--- a/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,93</t>
+          <t>0,03; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 16,53</t>
+          <t>9,43; 16,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,09</t>
+          <t>1,61; 9,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,64</t>
+          <t>4,18; 11,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 33,09</t>
+          <t>0,14; 35,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,55; 97,98</t>
+          <t>43,99; 97,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 58,35</t>
+          <t>7,73; 58,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 71,25</t>
+          <t>19,7; 71,81</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,13</t>
+          <t>3,3; 8,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 11,76</t>
+          <t>6,3; 11,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,71</t>
+          <t>1,56; 5,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 22,78</t>
+          <t>4,32; 24,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,13; 70,58</t>
+          <t>20,53; 65,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,1; 88,34</t>
+          <t>38,34; 83,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 65,49</t>
+          <t>14,9; 66,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,84; 179,56</t>
+          <t>32,78; 187,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 9,08</t>
+          <t>-0,05; 9,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 8,21</t>
+          <t>-1,98; 7,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 8,39</t>
+          <t>0,86; 8,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,99</t>
+          <t>0,5; 7,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 72,58</t>
+          <t>-1,09; 70,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 77,13</t>
+          <t>-13,71; 71,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 115,08</t>
+          <t>4,48; 113,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 68,54</t>
+          <t>2,97; 68,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,6; 7,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,01</t>
+          <t>8,02; 11,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,87</t>
+          <t>3,38; 6,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 16,67</t>
+          <t>5,36; 16,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>20,1; 46,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,36; 80,73</t>
+          <t>48,65; 80,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 62,51</t>
+          <t>27,18; 62,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,65; 125,36</t>
+          <t>37,53; 123,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 7,25</t>
+          <t>-0,06; 7,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 16,41</t>
+          <t>9,16; 16,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 9,93</t>
+          <t>2,11; 9,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 35,35</t>
+          <t>-0,39; 35,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,99; 97,54</t>
+          <t>44,55; 100,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 58,53</t>
+          <t>9,41; 57,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,76</t>
+          <t>3,4; 8,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,67</t>
+          <t>6,24; 11,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,69</t>
+          <t>1,47; 5,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,53; 65,74</t>
+          <t>22,48; 68,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,34; 83,93</t>
+          <t>38,74; 83,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,9; 66,09</t>
+          <t>12,98; 63,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 9,09</t>
+          <t>-0,22; 10,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,78</t>
+          <t>-2,0; 7,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,58</t>
+          <t>0,44; 8,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 70,05</t>
+          <t>-2,15; 79,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 71,35</t>
+          <t>-13,99; 72,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 113,46</t>
+          <t>3,14; 117,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,44</t>
+          <t>3,44; 7,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,97</t>
+          <t>8,01; 12,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,76</t>
+          <t>3,25; 6,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,1; 46,32</t>
+          <t>19,23; 45,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,65; 80,65</t>
+          <t>47,34; 80,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,18; 62,5</t>
+          <t>25,39; 62,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 7,21</t>
+          <t>-0,23; 6,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 16,75</t>
+          <t>9,2; 16,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,87</t>
+          <t>2,13; 10,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,87</t>
+          <t>4,07; 11,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 35,22</t>
+          <t>-1,21; 33,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,55; 100,45</t>
+          <t>44,55; 97,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 57,89</t>
+          <t>9,6; 58,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,7; 71,81</t>
+          <t>18,9; 71,25</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,77</t>
+          <t>3,58; 9,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,72</t>
+          <t>6,45; 11,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,72</t>
+          <t>1,59; 5,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 24,45</t>
+          <t>4,11; 22,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 68,79</t>
+          <t>23,13; 70,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,74; 83,99</t>
+          <t>40,1; 88,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 63,61</t>
+          <t>15,03; 65,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,78; 187,95</t>
+          <t>30,84; 179,56</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 10,1</t>
+          <t>-0,75; 9,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,94</t>
+          <t>-1,87; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 8,43</t>
+          <t>0,22; 8,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,66</t>
+          <t>0,58; 7,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 79,02</t>
+          <t>-4,8; 72,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 72,97</t>
+          <t>-12,12; 77,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 117,46</t>
+          <t>-0,37; 115,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 68,52</t>
+          <t>3,34; 68,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,33</t>
+          <t>3,38; 7,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 12,01</t>
+          <t>8,07; 12,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,88</t>
+          <t>3,37; 6,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,76</t>
+          <t>5,33; 16,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 45,72</t>
+          <t>19,08; 46,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,34; 80,64</t>
+          <t>48,36; 80,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,39; 62,28</t>
+          <t>26,09; 62,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,53; 123,52</t>
+          <t>37,65; 125,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>46,28%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,64</t>
+          <t>4,3; 11,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 71,25</t>
+          <t>20,49; 74,56</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>117,13%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 22,78</t>
+          <t>4,38; 34,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,84; 179,56</t>
+          <t>35,88; 339,66</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>32,94%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,99</t>
+          <t>0,79; 8,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 68,54</t>
+          <t>5,29; 71,18</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>86,83%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 16,67</t>
+          <t>5,58; 25,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,65; 125,36</t>
+          <t>42,9; 220,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,93</t>
+          <t>0,16; 6,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 16,53</t>
+          <t>9,48; 16,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,09</t>
+          <t>2,07; 10,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,72</t>
+          <t>4,55; 12,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 33,09</t>
+          <t>0,68; 33,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,55; 97,98</t>
+          <t>46,02; 100,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 58,35</t>
+          <t>9,58; 59,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,49; 74,56</t>
+          <t>22,43; 77,64</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,13</t>
+          <t>3,42; 8,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 11,76</t>
+          <t>6,3; 11,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,71</t>
+          <t>1,59; 5,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 34,35</t>
+          <t>4,37; 34,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,13; 70,58</t>
+          <t>22,25; 67,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,1; 88,34</t>
+          <t>39,53; 83,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 65,49</t>
+          <t>14,88; 66,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,88; 339,66</t>
+          <t>35,05; 338,0</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 9,08</t>
+          <t>-0,16; 9,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 8,21</t>
+          <t>-1,63; 8,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 8,39</t>
+          <t>0,61; 8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,04</t>
+          <t>0,27; 7,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 72,58</t>
+          <t>-1,6; 77,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 77,13</t>
+          <t>-11,04; 73,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 115,08</t>
+          <t>3,62; 120,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 71,18</t>
+          <t>1,3; 68,29</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,61; 7,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,01</t>
+          <t>8,22; 12,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,87</t>
+          <t>3,35; 6,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 25,28</t>
+          <t>5,46; 28,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>19,77; 45,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,36; 80,73</t>
+          <t>49,33; 81,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 62,51</t>
+          <t>26,51; 62,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,9; 220,2</t>
+          <t>40,69; 277,2</t>
         </is>
       </c>
     </row>
